--- a/img/blog.xlsx
+++ b/img/blog.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32148" windowHeight="14517" activeTab="1"/>
+    <workbookView windowWidth="21432" windowHeight="9745" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -58,10 +59,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -95,6 +96,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -102,40 +118,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +141,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -164,15 +156,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +174,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,49 +218,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -246,13 +253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +289,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,37 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,73 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,55 +473,93 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="34">
+  <borders count="42">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -787,15 +880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -820,6 +904,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -831,15 +924,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,6 +954,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -889,142 +982,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="27" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="33" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="41" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="29" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="37" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="29" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="37" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="39" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="32" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1034,11 +1127,83 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
@@ -1047,139 +1212,139 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1260,7 +1425,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12618085" y="4907915"/>
+          <a:off x="13364845" y="4907915"/>
           <a:ext cx="307340" cy="267335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3847,8 +4012,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17013555" y="3996055"/>
-          <a:ext cx="5207635" cy="374650"/>
+          <a:off x="18004155" y="3996055"/>
+          <a:ext cx="5542915" cy="374650"/>
           <a:chOff x="26679" y="6108"/>
           <a:chExt cx="8166" cy="590"/>
         </a:xfrm>
@@ -7469,2399 +7634,2399 @@
   <sheetPr/>
   <dimension ref="F12:Z95"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
+    <sheetView topLeftCell="B85" workbookViewId="0">
       <selection activeCell="AE53" sqref="AE53:AF75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.91791044776119" defaultRowHeight="14.2"/>
+  <sheetFormatPr defaultColWidth="8.91549295774648" defaultRowHeight="14.2"/>
   <cols>
-    <col min="5" max="5" width="3.1865671641791" customWidth="true"/>
-    <col min="6" max="6" width="7.59701492537313" customWidth="true"/>
-    <col min="7" max="26" width="4.30597014925373" customWidth="true"/>
+    <col min="5" max="5" width="3.1830985915493" customWidth="true"/>
+    <col min="6" max="6" width="7.59859154929577" customWidth="true"/>
+    <col min="7" max="26" width="4.30281690140845" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="12" ht="14.95"/>
-    <row r="13" ht="15.05" spans="7:26">
-      <c r="G13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="26"/>
+    <row r="13" ht="15.9" spans="7:26">
+      <c r="G13" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="50"/>
     </row>
     <row r="14" spans="6:26">
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="36">
         <v>1</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13">
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37">
         <v>2</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13">
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37">
         <v>3</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13">
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37">
         <v>4</v>
       </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13">
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37">
         <v>5</v>
       </c>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="27"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="51"/>
     </row>
     <row r="15" spans="6:26">
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="38">
         <v>1</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15">
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39">
         <v>2</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15">
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39">
         <v>3</v>
       </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15">
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39">
         <v>4</v>
       </c>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15">
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39">
         <v>5</v>
       </c>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="28"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="52"/>
     </row>
     <row r="16" spans="6:26">
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="40">
         <v>1</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17">
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41">
         <v>2</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41">
         <v>3</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17">
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41">
         <v>4</v>
       </c>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17">
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41">
         <v>5</v>
       </c>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="29"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="53"/>
     </row>
-    <row r="17" ht="15.05" spans="7:26">
-      <c r="G17" s="18" t="s">
+    <row r="17" ht="15.9" spans="7:26">
+      <c r="G17" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="30"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="54"/>
     </row>
     <row r="18" spans="6:26">
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="36">
         <v>0.5</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13">
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37">
         <v>0.1</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13">
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37">
         <v>0.1</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13">
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37">
         <v>0.2</v>
       </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13">
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37">
         <v>0.1</v>
       </c>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="27"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="51"/>
     </row>
     <row r="19" spans="6:26">
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="38">
         <v>0.5</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15">
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39">
         <v>0.1</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15">
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39">
         <v>0.1</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15">
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39">
         <v>0.2</v>
       </c>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15">
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39">
         <v>0.1</v>
       </c>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="28"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="52"/>
     </row>
     <row r="20" spans="6:26">
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="40">
         <v>0.5</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17">
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41">
         <v>0.1</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17">
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41">
         <v>0.1</v>
       </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17">
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41">
         <v>0.2</v>
       </c>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17">
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41">
         <v>0.1</v>
       </c>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="29"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="53"/>
     </row>
-    <row r="21" ht="15.05" spans="7:26">
-      <c r="G21" s="18" t="s">
+    <row r="21" ht="15.9" spans="7:26">
+      <c r="G21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="30"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="54"/>
     </row>
     <row r="22" spans="6:26">
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="36">
         <v>0.1</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="37">
         <v>0.8</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="37">
         <v>0.3</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="37">
         <v>0.6</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="37">
         <v>0.1</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="37">
         <v>0.8</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="37">
         <v>0.3</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="37">
         <v>0.6</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="37">
         <v>0.1</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="37">
         <v>0.8</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="37">
         <v>0.3</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="37">
         <v>0.6</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="37">
         <v>0.1</v>
       </c>
-      <c r="T22" s="13">
+      <c r="T22" s="37">
         <v>0.8</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="37">
         <v>0.3</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="37">
         <v>0.6</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W22" s="37">
         <v>0.1</v>
       </c>
-      <c r="X22" s="13">
+      <c r="X22" s="37">
         <v>0.8</v>
       </c>
-      <c r="Y22" s="13">
+      <c r="Y22" s="37">
         <v>0.3</v>
       </c>
-      <c r="Z22" s="27">
+      <c r="Z22" s="51">
         <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="6:26">
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="38">
         <v>0.1</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="39">
         <v>0.8</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="39">
         <v>0.3</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="39">
         <v>0.6</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="39">
         <v>0.1</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="39">
         <v>0.8</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="39">
         <v>0.3</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="39">
         <v>0.6</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="39">
         <v>0.1</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="39">
         <v>0.8</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="39">
         <v>0.3</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R23" s="39">
         <v>0.6</v>
       </c>
-      <c r="S23" s="15">
+      <c r="S23" s="39">
         <v>0.1</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T23" s="39">
         <v>0.8</v>
       </c>
-      <c r="U23" s="15">
+      <c r="U23" s="39">
         <v>0.3</v>
       </c>
-      <c r="V23" s="15">
+      <c r="V23" s="39">
         <v>0.6</v>
       </c>
-      <c r="W23" s="15">
+      <c r="W23" s="39">
         <v>0.1</v>
       </c>
-      <c r="X23" s="15">
+      <c r="X23" s="39">
         <v>0.8</v>
       </c>
-      <c r="Y23" s="15">
+      <c r="Y23" s="39">
         <v>0.3</v>
       </c>
-      <c r="Z23" s="28">
+      <c r="Z23" s="52">
         <v>0.6</v>
       </c>
     </row>
     <row r="24" ht="14.95" spans="6:26">
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="44">
         <v>0.1</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="45">
         <v>0.8</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="45">
         <v>0.3</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="45">
         <v>0.6</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="45">
         <v>0.1</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="45">
         <v>0.8</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="45">
         <v>0.3</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="45">
         <v>0.6</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="45">
         <v>0.1</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="45">
         <v>0.8</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="45">
         <v>0.3</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="45">
         <v>0.6</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="45">
         <v>0.1</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="45">
         <v>0.8</v>
       </c>
-      <c r="U24" s="21">
+      <c r="U24" s="45">
         <v>0.3</v>
       </c>
-      <c r="V24" s="21">
+      <c r="V24" s="45">
         <v>0.6</v>
       </c>
-      <c r="W24" s="21">
+      <c r="W24" s="45">
         <v>0.1</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24" s="45">
         <v>0.8</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="Y24" s="45">
         <v>0.3</v>
       </c>
-      <c r="Z24" s="31">
+      <c r="Z24" s="55">
         <v>0.6</v>
       </c>
     </row>
     <row r="25" ht="14.95"/>
-    <row r="26" ht="15.05" spans="7:26">
-      <c r="G26" s="9" t="s">
+    <row r="26" ht="15.9" spans="7:26">
+      <c r="G26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="26"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="50"/>
     </row>
     <row r="27" spans="6:26">
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="36">
         <v>1</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="23">
-        <v>0</v>
-      </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23">
-        <v>0</v>
-      </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23">
-        <v>0</v>
-      </c>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23">
-        <v>0</v>
-      </c>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="32"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="47">
+        <v>0</v>
+      </c>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47">
+        <v>0</v>
+      </c>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47">
+        <v>0</v>
+      </c>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47">
+        <v>0</v>
+      </c>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="56"/>
     </row>
     <row r="28" spans="6:26">
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="22">
-        <v>0</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23">
-        <v>0</v>
-      </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23">
-        <v>0</v>
-      </c>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23">
-        <v>0</v>
-      </c>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="15">
+      <c r="G28" s="46">
+        <v>0</v>
+      </c>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47">
+        <v>0</v>
+      </c>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47">
+        <v>0</v>
+      </c>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47">
+        <v>0</v>
+      </c>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="39">
         <v>1</v>
       </c>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="28"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="52"/>
     </row>
     <row r="29" spans="6:26">
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="22">
-        <v>0</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="17">
+      <c r="G29" s="46">
+        <v>0</v>
+      </c>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="41">
         <v>1</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="23">
-        <v>0</v>
-      </c>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23">
-        <v>0</v>
-      </c>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23">
-        <v>0</v>
-      </c>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="32"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="47">
+        <v>0</v>
+      </c>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47">
+        <v>0</v>
+      </c>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47">
+        <v>0</v>
+      </c>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="56"/>
     </row>
-    <row r="30" ht="15.05" spans="7:26">
-      <c r="G30" s="18" t="s">
+    <row r="30" ht="15.9" spans="7:26">
+      <c r="G30" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="30"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="54"/>
     </row>
     <row r="31" spans="6:26">
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="36">
         <v>0.1</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="37">
         <v>0.8</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="37">
         <v>0.3</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="37">
         <v>0.6</v>
       </c>
-      <c r="K31" s="23">
-        <v>0</v>
-      </c>
-      <c r="L31" s="23">
-        <v>0</v>
-      </c>
-      <c r="M31" s="23">
-        <v>0</v>
-      </c>
-      <c r="N31" s="23">
-        <v>0</v>
-      </c>
-      <c r="O31" s="23">
-        <v>0</v>
-      </c>
-      <c r="P31" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="23">
-        <v>0</v>
-      </c>
-      <c r="R31" s="23">
-        <v>0</v>
-      </c>
-      <c r="S31" s="23">
-        <v>0</v>
-      </c>
-      <c r="T31" s="23">
-        <v>0</v>
-      </c>
-      <c r="U31" s="23">
-        <v>0</v>
-      </c>
-      <c r="V31" s="23">
-        <v>0</v>
-      </c>
-      <c r="W31" s="23">
-        <v>0</v>
-      </c>
-      <c r="X31" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="23">
+      <c r="K31" s="47">
+        <v>0</v>
+      </c>
+      <c r="L31" s="47">
+        <v>0</v>
+      </c>
+      <c r="M31" s="47">
+        <v>0</v>
+      </c>
+      <c r="N31" s="47">
+        <v>0</v>
+      </c>
+      <c r="O31" s="47">
+        <v>0</v>
+      </c>
+      <c r="P31" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="47">
+        <v>0</v>
+      </c>
+      <c r="R31" s="47">
+        <v>0</v>
+      </c>
+      <c r="S31" s="47">
+        <v>0</v>
+      </c>
+      <c r="T31" s="47">
+        <v>0</v>
+      </c>
+      <c r="U31" s="47">
+        <v>0</v>
+      </c>
+      <c r="V31" s="47">
+        <v>0</v>
+      </c>
+      <c r="W31" s="47">
+        <v>0</v>
+      </c>
+      <c r="X31" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="6:26">
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="22">
-        <v>0</v>
-      </c>
-      <c r="H32" s="23">
-        <v>0</v>
-      </c>
-      <c r="I32" s="23">
-        <v>0</v>
-      </c>
-      <c r="J32" s="23">
-        <v>0</v>
-      </c>
-      <c r="K32" s="23">
-        <v>0</v>
-      </c>
-      <c r="L32" s="23">
-        <v>0</v>
-      </c>
-      <c r="M32" s="23">
-        <v>0</v>
-      </c>
-      <c r="N32" s="23">
-        <v>0</v>
-      </c>
-      <c r="O32" s="23">
-        <v>0</v>
-      </c>
-      <c r="P32" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="23">
-        <v>0</v>
-      </c>
-      <c r="R32" s="23">
-        <v>0</v>
-      </c>
-      <c r="S32" s="23">
-        <v>0</v>
-      </c>
-      <c r="T32" s="23">
-        <v>0</v>
-      </c>
-      <c r="U32" s="23">
-        <v>0</v>
-      </c>
-      <c r="V32" s="23">
-        <v>0</v>
-      </c>
-      <c r="W32" s="15">
+      <c r="G32" s="46">
+        <v>0</v>
+      </c>
+      <c r="H32" s="47">
+        <v>0</v>
+      </c>
+      <c r="I32" s="47">
+        <v>0</v>
+      </c>
+      <c r="J32" s="47">
+        <v>0</v>
+      </c>
+      <c r="K32" s="47">
+        <v>0</v>
+      </c>
+      <c r="L32" s="47">
+        <v>0</v>
+      </c>
+      <c r="M32" s="47">
+        <v>0</v>
+      </c>
+      <c r="N32" s="47">
+        <v>0</v>
+      </c>
+      <c r="O32" s="47">
+        <v>0</v>
+      </c>
+      <c r="P32" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="47">
+        <v>0</v>
+      </c>
+      <c r="R32" s="47">
+        <v>0</v>
+      </c>
+      <c r="S32" s="47">
+        <v>0</v>
+      </c>
+      <c r="T32" s="47">
+        <v>0</v>
+      </c>
+      <c r="U32" s="47">
+        <v>0</v>
+      </c>
+      <c r="V32" s="47">
+        <v>0</v>
+      </c>
+      <c r="W32" s="39">
         <v>0.1</v>
       </c>
-      <c r="X32" s="15">
+      <c r="X32" s="39">
         <v>0.8</v>
       </c>
-      <c r="Y32" s="15">
+      <c r="Y32" s="39">
         <v>0.3</v>
       </c>
-      <c r="Z32" s="28">
+      <c r="Z32" s="52">
         <v>0.6</v>
       </c>
     </row>
     <row r="33" ht="14.95" spans="6:26">
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="24">
-        <v>0</v>
-      </c>
-      <c r="H33" s="25">
-        <v>0</v>
-      </c>
-      <c r="I33" s="25">
-        <v>0</v>
-      </c>
-      <c r="J33" s="25">
-        <v>0</v>
-      </c>
-      <c r="K33" s="21">
+      <c r="G33" s="48">
+        <v>0</v>
+      </c>
+      <c r="H33" s="49">
+        <v>0</v>
+      </c>
+      <c r="I33" s="49">
+        <v>0</v>
+      </c>
+      <c r="J33" s="49">
+        <v>0</v>
+      </c>
+      <c r="K33" s="45">
         <v>0.1</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="45">
         <v>0.8</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="45">
         <v>0.3</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N33" s="45">
         <v>0.6</v>
       </c>
-      <c r="O33" s="25">
-        <v>0</v>
-      </c>
-      <c r="P33" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="25">
-        <v>0</v>
-      </c>
-      <c r="R33" s="25">
-        <v>0</v>
-      </c>
-      <c r="S33" s="25">
-        <v>0</v>
-      </c>
-      <c r="T33" s="25">
-        <v>0</v>
-      </c>
-      <c r="U33" s="25">
-        <v>0</v>
-      </c>
-      <c r="V33" s="25">
-        <v>0</v>
-      </c>
-      <c r="W33" s="25">
-        <v>0</v>
-      </c>
-      <c r="X33" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="33">
+      <c r="O33" s="49">
+        <v>0</v>
+      </c>
+      <c r="P33" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="49">
+        <v>0</v>
+      </c>
+      <c r="R33" s="49">
+        <v>0</v>
+      </c>
+      <c r="S33" s="49">
+        <v>0</v>
+      </c>
+      <c r="T33" s="49">
+        <v>0</v>
+      </c>
+      <c r="U33" s="49">
+        <v>0</v>
+      </c>
+      <c r="V33" s="49">
+        <v>0</v>
+      </c>
+      <c r="W33" s="49">
+        <v>0</v>
+      </c>
+      <c r="X33" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="50" ht="14.95"/>
-    <row r="51" ht="15.05" spans="7:26">
-      <c r="G51" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="26"/>
+    <row r="51" ht="15.9" spans="7:26">
+      <c r="G51" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="50"/>
     </row>
     <row r="52" spans="6:26">
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="36">
         <v>1</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13">
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37">
         <v>2</v>
       </c>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13">
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37">
         <v>3</v>
       </c>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13">
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37">
         <v>4</v>
       </c>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13">
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37">
         <v>5</v>
       </c>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="27"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="51"/>
     </row>
     <row r="53" spans="6:26">
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="38">
         <v>1</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15">
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39">
         <v>2</v>
       </c>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15">
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39">
         <v>3</v>
       </c>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15">
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39">
         <v>4</v>
       </c>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15">
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39">
         <v>5</v>
       </c>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="28"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="52"/>
     </row>
     <row r="54" spans="6:26">
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="40">
         <v>1</v>
       </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17">
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41">
         <v>2</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17">
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41">
         <v>3</v>
       </c>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17">
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41">
         <v>4</v>
       </c>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17">
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41">
         <v>5</v>
       </c>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="29"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="53"/>
     </row>
-    <row r="55" ht="15.05" spans="7:26">
-      <c r="G55" s="18" t="s">
+    <row r="55" ht="15.9" spans="7:26">
+      <c r="G55" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="30"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="54"/>
     </row>
     <row r="56" spans="6:26">
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="36">
         <v>0.5</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13">
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37">
         <v>0.1</v>
       </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13">
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37">
         <v>0.1</v>
       </c>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13">
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37">
         <v>0.2</v>
       </c>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13">
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37">
         <v>0.1</v>
       </c>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="27"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="51"/>
     </row>
     <row r="57" spans="6:26">
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="38">
         <v>0.5</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15">
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39">
         <v>0.1</v>
       </c>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15">
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39">
         <v>0.1</v>
       </c>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15">
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39">
         <v>0.2</v>
       </c>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15">
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39">
         <v>0.1</v>
       </c>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="28"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="52"/>
     </row>
     <row r="58" spans="6:26">
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="40">
         <v>0.5</v>
       </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17">
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41">
         <v>0.1</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17">
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41">
         <v>0.1</v>
       </c>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17">
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41">
         <v>0.2</v>
       </c>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17">
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="41"/>
+      <c r="W58" s="41">
         <v>0.1</v>
       </c>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="29"/>
+      <c r="X58" s="41"/>
+      <c r="Y58" s="41"/>
+      <c r="Z58" s="53"/>
     </row>
-    <row r="59" ht="15.05" spans="7:26">
-      <c r="G59" s="18" t="s">
+    <row r="59" ht="15.9" spans="7:26">
+      <c r="G59" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="30"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="54"/>
     </row>
     <row r="60" spans="6:26">
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="36">
         <v>0.1</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="37">
         <v>0.8</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="37">
         <v>0.3</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="37">
         <v>0.6</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K60" s="37">
         <v>0.1</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="37">
         <v>0.8</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="37">
         <v>0.3</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N60" s="37">
         <v>0.6</v>
       </c>
-      <c r="O60" s="13">
+      <c r="O60" s="37">
         <v>0.1</v>
       </c>
-      <c r="P60" s="13">
+      <c r="P60" s="37">
         <v>0.8</v>
       </c>
-      <c r="Q60" s="13">
+      <c r="Q60" s="37">
         <v>0.3</v>
       </c>
-      <c r="R60" s="13">
+      <c r="R60" s="37">
         <v>0.6</v>
       </c>
-      <c r="S60" s="13">
+      <c r="S60" s="37">
         <v>0.1</v>
       </c>
-      <c r="T60" s="13">
+      <c r="T60" s="37">
         <v>0.8</v>
       </c>
-      <c r="U60" s="13">
+      <c r="U60" s="37">
         <v>0.3</v>
       </c>
-      <c r="V60" s="13">
+      <c r="V60" s="37">
         <v>0.6</v>
       </c>
-      <c r="W60" s="13">
+      <c r="W60" s="37">
         <v>0.1</v>
       </c>
-      <c r="X60" s="13">
+      <c r="X60" s="37">
         <v>0.8</v>
       </c>
-      <c r="Y60" s="13">
+      <c r="Y60" s="37">
         <v>0.3</v>
       </c>
-      <c r="Z60" s="27">
+      <c r="Z60" s="51">
         <v>0.6</v>
       </c>
     </row>
     <row r="61" spans="6:26">
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="38">
         <v>0.1</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="39">
         <v>0.8</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="39">
         <v>0.3</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="39">
         <v>0.6</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K61" s="39">
         <v>0.1</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L61" s="39">
         <v>0.8</v>
       </c>
-      <c r="M61" s="15">
+      <c r="M61" s="39">
         <v>0.3</v>
       </c>
-      <c r="N61" s="15">
+      <c r="N61" s="39">
         <v>0.6</v>
       </c>
-      <c r="O61" s="15">
+      <c r="O61" s="39">
         <v>0.1</v>
       </c>
-      <c r="P61" s="15">
+      <c r="P61" s="39">
         <v>0.8</v>
       </c>
-      <c r="Q61" s="15">
+      <c r="Q61" s="39">
         <v>0.3</v>
       </c>
-      <c r="R61" s="15">
+      <c r="R61" s="39">
         <v>0.6</v>
       </c>
-      <c r="S61" s="15">
+      <c r="S61" s="39">
         <v>0.1</v>
       </c>
-      <c r="T61" s="15">
+      <c r="T61" s="39">
         <v>0.8</v>
       </c>
-      <c r="U61" s="15">
+      <c r="U61" s="39">
         <v>0.3</v>
       </c>
-      <c r="V61" s="15">
+      <c r="V61" s="39">
         <v>0.6</v>
       </c>
-      <c r="W61" s="15">
+      <c r="W61" s="39">
         <v>0.1</v>
       </c>
-      <c r="X61" s="15">
+      <c r="X61" s="39">
         <v>0.8</v>
       </c>
-      <c r="Y61" s="15">
+      <c r="Y61" s="39">
         <v>0.3</v>
       </c>
-      <c r="Z61" s="28">
+      <c r="Z61" s="52">
         <v>0.6</v>
       </c>
     </row>
     <row r="62" ht="14.95" spans="6:26">
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="44">
         <v>0.1</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="45">
         <v>0.8</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="45">
         <v>0.3</v>
       </c>
-      <c r="J62" s="21">
+      <c r="J62" s="45">
         <v>0.6</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="45">
         <v>0.1</v>
       </c>
-      <c r="L62" s="21">
+      <c r="L62" s="45">
         <v>0.8</v>
       </c>
-      <c r="M62" s="21">
+      <c r="M62" s="45">
         <v>0.3</v>
       </c>
-      <c r="N62" s="21">
+      <c r="N62" s="45">
         <v>0.6</v>
       </c>
-      <c r="O62" s="21">
+      <c r="O62" s="45">
         <v>0.1</v>
       </c>
-      <c r="P62" s="21">
+      <c r="P62" s="45">
         <v>0.8</v>
       </c>
-      <c r="Q62" s="21">
+      <c r="Q62" s="45">
         <v>0.3</v>
       </c>
-      <c r="R62" s="21">
+      <c r="R62" s="45">
         <v>0.6</v>
       </c>
-      <c r="S62" s="21">
+      <c r="S62" s="45">
         <v>0.1</v>
       </c>
-      <c r="T62" s="21">
+      <c r="T62" s="45">
         <v>0.8</v>
       </c>
-      <c r="U62" s="21">
+      <c r="U62" s="45">
         <v>0.3</v>
       </c>
-      <c r="V62" s="21">
+      <c r="V62" s="45">
         <v>0.6</v>
       </c>
-      <c r="W62" s="21">
+      <c r="W62" s="45">
         <v>0.1</v>
       </c>
-      <c r="X62" s="21">
+      <c r="X62" s="45">
         <v>0.8</v>
       </c>
-      <c r="Y62" s="21">
+      <c r="Y62" s="45">
         <v>0.3</v>
       </c>
-      <c r="Z62" s="31">
+      <c r="Z62" s="55">
         <v>0.6</v>
       </c>
     </row>
     <row r="63" ht="14.95"/>
-    <row r="64" ht="15.05" spans="7:26">
-      <c r="G64" s="9" t="s">
+    <row r="64" ht="15.9" spans="7:26">
+      <c r="G64" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
-      <c r="Z64" s="26"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="50"/>
     </row>
     <row r="65" spans="6:26">
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="36">
         <v>1</v>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="23">
-        <v>0</v>
-      </c>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23">
-        <v>0</v>
-      </c>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="23"/>
-      <c r="S65" s="23">
-        <v>0</v>
-      </c>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="23"/>
-      <c r="W65" s="23">
-        <v>0</v>
-      </c>
-      <c r="X65" s="23"/>
-      <c r="Y65" s="23"/>
-      <c r="Z65" s="32"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="47">
+        <v>0</v>
+      </c>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47">
+        <v>0</v>
+      </c>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47">
+        <v>0</v>
+      </c>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47">
+        <v>0</v>
+      </c>
+      <c r="X65" s="47"/>
+      <c r="Y65" s="47"/>
+      <c r="Z65" s="56"/>
     </row>
     <row r="66" spans="6:26">
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="22">
-        <v>0</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23">
-        <v>0</v>
-      </c>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23">
-        <v>0</v>
-      </c>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23">
-        <v>0</v>
-      </c>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23"/>
-      <c r="W66" s="15">
+      <c r="G66" s="46">
+        <v>0</v>
+      </c>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47">
+        <v>0</v>
+      </c>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47">
+        <v>0</v>
+      </c>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47">
+        <v>0</v>
+      </c>
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="39">
         <v>1</v>
       </c>
-      <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="28"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="52"/>
     </row>
     <row r="67" spans="6:26">
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="22">
-        <v>0</v>
-      </c>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="17">
+      <c r="G67" s="46">
+        <v>0</v>
+      </c>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="41">
         <v>1</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="23">
-        <v>0</v>
-      </c>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="23"/>
-      <c r="S67" s="23">
-        <v>0</v>
-      </c>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="23"/>
-      <c r="W67" s="23">
-        <v>0</v>
-      </c>
-      <c r="X67" s="23"/>
-      <c r="Y67" s="23"/>
-      <c r="Z67" s="32"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="47">
+        <v>0</v>
+      </c>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="47">
+        <v>0</v>
+      </c>
+      <c r="T67" s="47"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47">
+        <v>0</v>
+      </c>
+      <c r="X67" s="47"/>
+      <c r="Y67" s="47"/>
+      <c r="Z67" s="56"/>
     </row>
-    <row r="68" ht="15.05" spans="7:26">
-      <c r="G68" s="18" t="s">
+    <row r="68" ht="15.9" spans="7:26">
+      <c r="G68" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
-      <c r="Z68" s="30"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="43"/>
+      <c r="X68" s="43"/>
+      <c r="Y68" s="43"/>
+      <c r="Z68" s="54"/>
     </row>
     <row r="69" spans="6:26">
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="36">
         <v>0.1</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="37">
         <v>0.8</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="37">
         <v>0.3</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="37">
         <v>0.6</v>
       </c>
-      <c r="K69" s="23">
-        <v>0</v>
-      </c>
-      <c r="L69" s="23">
-        <v>0</v>
-      </c>
-      <c r="M69" s="23">
-        <v>0</v>
-      </c>
-      <c r="N69" s="23">
-        <v>0</v>
-      </c>
-      <c r="O69" s="23">
-        <v>0</v>
-      </c>
-      <c r="P69" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="23">
-        <v>0</v>
-      </c>
-      <c r="R69" s="23">
-        <v>0</v>
-      </c>
-      <c r="S69" s="23">
-        <v>0</v>
-      </c>
-      <c r="T69" s="23">
-        <v>0</v>
-      </c>
-      <c r="U69" s="23">
-        <v>0</v>
-      </c>
-      <c r="V69" s="23">
-        <v>0</v>
-      </c>
-      <c r="W69" s="23">
-        <v>0</v>
-      </c>
-      <c r="X69" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="23">
+      <c r="K69" s="47">
+        <v>0</v>
+      </c>
+      <c r="L69" s="47">
+        <v>0</v>
+      </c>
+      <c r="M69" s="47">
+        <v>0</v>
+      </c>
+      <c r="N69" s="47">
+        <v>0</v>
+      </c>
+      <c r="O69" s="47">
+        <v>0</v>
+      </c>
+      <c r="P69" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="47">
+        <v>0</v>
+      </c>
+      <c r="R69" s="47">
+        <v>0</v>
+      </c>
+      <c r="S69" s="47">
+        <v>0</v>
+      </c>
+      <c r="T69" s="47">
+        <v>0</v>
+      </c>
+      <c r="U69" s="47">
+        <v>0</v>
+      </c>
+      <c r="V69" s="47">
+        <v>0</v>
+      </c>
+      <c r="W69" s="47">
+        <v>0</v>
+      </c>
+      <c r="X69" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="6:26">
-      <c r="F70" s="11" t="s">
+      <c r="F70" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="22">
-        <v>0</v>
-      </c>
-      <c r="H70" s="23">
-        <v>0</v>
-      </c>
-      <c r="I70" s="23">
-        <v>0</v>
-      </c>
-      <c r="J70" s="23">
-        <v>0</v>
-      </c>
-      <c r="K70" s="23">
-        <v>0</v>
-      </c>
-      <c r="L70" s="23">
-        <v>0</v>
-      </c>
-      <c r="M70" s="23">
-        <v>0</v>
-      </c>
-      <c r="N70" s="23">
-        <v>0</v>
-      </c>
-      <c r="O70" s="23">
-        <v>0</v>
-      </c>
-      <c r="P70" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="23">
-        <v>0</v>
-      </c>
-      <c r="R70" s="23">
-        <v>0</v>
-      </c>
-      <c r="S70" s="23">
-        <v>0</v>
-      </c>
-      <c r="T70" s="23">
-        <v>0</v>
-      </c>
-      <c r="U70" s="23">
-        <v>0</v>
-      </c>
-      <c r="V70" s="23">
-        <v>0</v>
-      </c>
-      <c r="W70" s="15">
+      <c r="G70" s="46">
+        <v>0</v>
+      </c>
+      <c r="H70" s="47">
+        <v>0</v>
+      </c>
+      <c r="I70" s="47">
+        <v>0</v>
+      </c>
+      <c r="J70" s="47">
+        <v>0</v>
+      </c>
+      <c r="K70" s="47">
+        <v>0</v>
+      </c>
+      <c r="L70" s="47">
+        <v>0</v>
+      </c>
+      <c r="M70" s="47">
+        <v>0</v>
+      </c>
+      <c r="N70" s="47">
+        <v>0</v>
+      </c>
+      <c r="O70" s="47">
+        <v>0</v>
+      </c>
+      <c r="P70" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="47">
+        <v>0</v>
+      </c>
+      <c r="R70" s="47">
+        <v>0</v>
+      </c>
+      <c r="S70" s="47">
+        <v>0</v>
+      </c>
+      <c r="T70" s="47">
+        <v>0</v>
+      </c>
+      <c r="U70" s="47">
+        <v>0</v>
+      </c>
+      <c r="V70" s="47">
+        <v>0</v>
+      </c>
+      <c r="W70" s="39">
         <v>0.1</v>
       </c>
-      <c r="X70" s="15">
+      <c r="X70" s="39">
         <v>0.8</v>
       </c>
-      <c r="Y70" s="15">
+      <c r="Y70" s="39">
         <v>0.3</v>
       </c>
-      <c r="Z70" s="28">
+      <c r="Z70" s="52">
         <v>0.6</v>
       </c>
     </row>
     <row r="71" ht="14.95" spans="6:26">
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="24">
-        <v>0</v>
-      </c>
-      <c r="H71" s="25">
-        <v>0</v>
-      </c>
-      <c r="I71" s="25">
-        <v>0</v>
-      </c>
-      <c r="J71" s="25">
-        <v>0</v>
-      </c>
-      <c r="K71" s="21">
+      <c r="G71" s="48">
+        <v>0</v>
+      </c>
+      <c r="H71" s="49">
+        <v>0</v>
+      </c>
+      <c r="I71" s="49">
+        <v>0</v>
+      </c>
+      <c r="J71" s="49">
+        <v>0</v>
+      </c>
+      <c r="K71" s="45">
         <v>0.1</v>
       </c>
-      <c r="L71" s="21">
+      <c r="L71" s="45">
         <v>0.8</v>
       </c>
-      <c r="M71" s="21">
+      <c r="M71" s="45">
         <v>0.3</v>
       </c>
-      <c r="N71" s="21">
+      <c r="N71" s="45">
         <v>0.6</v>
       </c>
-      <c r="O71" s="25">
-        <v>0</v>
-      </c>
-      <c r="P71" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="25">
-        <v>0</v>
-      </c>
-      <c r="R71" s="25">
-        <v>0</v>
-      </c>
-      <c r="S71" s="25">
-        <v>0</v>
-      </c>
-      <c r="T71" s="25">
-        <v>0</v>
-      </c>
-      <c r="U71" s="25">
-        <v>0</v>
-      </c>
-      <c r="V71" s="25">
-        <v>0</v>
-      </c>
-      <c r="W71" s="25">
-        <v>0</v>
-      </c>
-      <c r="X71" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="33">
+      <c r="O71" s="49">
+        <v>0</v>
+      </c>
+      <c r="P71" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="49">
+        <v>0</v>
+      </c>
+      <c r="R71" s="49">
+        <v>0</v>
+      </c>
+      <c r="S71" s="49">
+        <v>0</v>
+      </c>
+      <c r="T71" s="49">
+        <v>0</v>
+      </c>
+      <c r="U71" s="49">
+        <v>0</v>
+      </c>
+      <c r="V71" s="49">
+        <v>0</v>
+      </c>
+      <c r="W71" s="49">
+        <v>0</v>
+      </c>
+      <c r="X71" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="74" ht="14.95"/>
-    <row r="75" ht="15.05" spans="7:26">
-      <c r="G75" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
-      <c r="Y75" s="10"/>
-      <c r="Z75" s="26"/>
+    <row r="75" ht="15.9" spans="7:26">
+      <c r="G75" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="50"/>
     </row>
     <row r="76" spans="6:26">
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="36">
         <v>1</v>
       </c>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13">
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37">
         <v>2</v>
       </c>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13">
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37">
         <v>3</v>
       </c>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13">
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37">
         <v>4</v>
       </c>
-      <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13">
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="37">
         <v>5</v>
       </c>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="27"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="37"/>
+      <c r="Z76" s="51"/>
     </row>
     <row r="77" spans="6:26">
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="38">
         <v>1</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15">
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39">
         <v>2</v>
       </c>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15">
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39">
         <v>3</v>
       </c>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15">
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39">
         <v>4</v>
       </c>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="15">
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="39">
         <v>5</v>
       </c>
-      <c r="X77" s="15"/>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="28"/>
+      <c r="X77" s="39"/>
+      <c r="Y77" s="39"/>
+      <c r="Z77" s="52"/>
     </row>
     <row r="78" spans="6:26">
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="40">
         <v>1</v>
       </c>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17">
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41">
         <v>2</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17">
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="41">
         <v>3</v>
       </c>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17">
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="41">
         <v>4</v>
       </c>
-      <c r="T78" s="17"/>
-      <c r="U78" s="17"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="17">
+      <c r="T78" s="41"/>
+      <c r="U78" s="41"/>
+      <c r="V78" s="41"/>
+      <c r="W78" s="41">
         <v>5</v>
       </c>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="17"/>
-      <c r="Z78" s="29"/>
+      <c r="X78" s="41"/>
+      <c r="Y78" s="41"/>
+      <c r="Z78" s="53"/>
     </row>
-    <row r="79" ht="15.05" spans="7:26">
-      <c r="G79" s="18" t="s">
+    <row r="79" ht="15.9" spans="7:26">
+      <c r="G79" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
-      <c r="W79" s="19"/>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="19"/>
-      <c r="Z79" s="30"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="43"/>
+      <c r="Z79" s="54"/>
     </row>
     <row r="80" spans="6:26">
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="36">
         <v>0.5</v>
       </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13">
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37">
         <v>0.1</v>
       </c>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13">
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37">
         <v>0.1</v>
       </c>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13">
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37">
         <v>0.2</v>
       </c>
-      <c r="T80" s="13"/>
-      <c r="U80" s="13"/>
-      <c r="V80" s="13"/>
-      <c r="W80" s="13">
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="37">
         <v>0.1</v>
       </c>
-      <c r="X80" s="13"/>
-      <c r="Y80" s="13"/>
-      <c r="Z80" s="27"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="37"/>
+      <c r="Z80" s="51"/>
     </row>
     <row r="81" spans="6:26">
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G81" s="38">
         <v>0.5</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15">
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39">
         <v>0.1</v>
       </c>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15">
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39">
         <v>0.1</v>
       </c>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15">
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39">
         <v>0.2</v>
       </c>
-      <c r="T81" s="15"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="15"/>
-      <c r="W81" s="15">
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39">
         <v>0.1</v>
       </c>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="28"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="39"/>
+      <c r="Z81" s="52"/>
     </row>
     <row r="82" spans="6:26">
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="40">
         <v>0.5</v>
       </c>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17">
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41">
         <v>0.1</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17">
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="41">
         <v>0.1</v>
       </c>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="17">
+      <c r="P82" s="41"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="41">
         <v>0.2</v>
       </c>
-      <c r="T82" s="17"/>
-      <c r="U82" s="17"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="17">
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="41">
         <v>0.1</v>
       </c>
-      <c r="X82" s="17"/>
-      <c r="Y82" s="17"/>
-      <c r="Z82" s="29"/>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="53"/>
     </row>
-    <row r="83" ht="15.05" spans="7:26">
-      <c r="G83" s="18" t="s">
+    <row r="83" ht="15.9" spans="7:26">
+      <c r="G83" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="19"/>
-      <c r="T83" s="19"/>
-      <c r="U83" s="19"/>
-      <c r="V83" s="19"/>
-      <c r="W83" s="19"/>
-      <c r="X83" s="19"/>
-      <c r="Y83" s="19"/>
-      <c r="Z83" s="30"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="43"/>
+      <c r="P83" s="43"/>
+      <c r="Q83" s="43"/>
+      <c r="R83" s="43"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="43"/>
+      <c r="U83" s="43"/>
+      <c r="V83" s="43"/>
+      <c r="W83" s="43"/>
+      <c r="X83" s="43"/>
+      <c r="Y83" s="43"/>
+      <c r="Z83" s="54"/>
     </row>
     <row r="84" spans="6:26">
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G84" s="34">
+      <c r="G84" s="58">
         <v>0.1</v>
       </c>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="41">
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="65">
         <v>0.8</v>
       </c>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="41">
+      <c r="M84" s="59"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="64"/>
+      <c r="Q84" s="65">
         <v>0.3</v>
       </c>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="40"/>
-      <c r="V84" s="41">
+      <c r="R84" s="59"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="64"/>
+      <c r="V84" s="65">
         <v>0.6</v>
       </c>
-      <c r="W84" s="35"/>
-      <c r="X84" s="35"/>
-      <c r="Y84" s="35"/>
-      <c r="Z84" s="46"/>
+      <c r="W84" s="59"/>
+      <c r="X84" s="59"/>
+      <c r="Y84" s="59"/>
+      <c r="Z84" s="70"/>
     </row>
     <row r="85" spans="6:26">
-      <c r="F85" s="11" t="s">
+      <c r="F85" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G85" s="36">
+      <c r="G85" s="60">
         <v>0.1</v>
       </c>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="43">
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="67">
         <v>0.8</v>
       </c>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="42"/>
-      <c r="Q85" s="43">
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="66"/>
+      <c r="Q85" s="67">
         <v>0.3</v>
       </c>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="42"/>
-      <c r="V85" s="43">
+      <c r="R85" s="61"/>
+      <c r="S85" s="61"/>
+      <c r="T85" s="61"/>
+      <c r="U85" s="66"/>
+      <c r="V85" s="67">
         <v>0.6</v>
       </c>
-      <c r="W85" s="37"/>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="37"/>
-      <c r="Z85" s="47"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="61"/>
+      <c r="Z85" s="71"/>
     </row>
     <row r="86" ht="14.95" spans="6:26">
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="38">
+      <c r="G86" s="62">
         <v>0.1</v>
       </c>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="45">
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="69">
         <v>0.8</v>
       </c>
-      <c r="M86" s="39"/>
-      <c r="N86" s="39"/>
-      <c r="O86" s="39"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="45">
+      <c r="M86" s="63"/>
+      <c r="N86" s="63"/>
+      <c r="O86" s="63"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="69">
         <v>0.3</v>
       </c>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="44"/>
-      <c r="V86" s="45">
+      <c r="R86" s="63"/>
+      <c r="S86" s="63"/>
+      <c r="T86" s="63"/>
+      <c r="U86" s="68"/>
+      <c r="V86" s="69">
         <v>0.6</v>
       </c>
-      <c r="W86" s="39"/>
-      <c r="X86" s="39"/>
-      <c r="Y86" s="39"/>
-      <c r="Z86" s="48"/>
+      <c r="W86" s="63"/>
+      <c r="X86" s="63"/>
+      <c r="Y86" s="63"/>
+      <c r="Z86" s="72"/>
     </row>
     <row r="87" ht="14.95"/>
-    <row r="88" ht="15.05" spans="7:26">
-      <c r="G88" s="9" t="s">
+    <row r="88" ht="15.9" spans="7:26">
+      <c r="G88" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="10"/>
-      <c r="W88" s="10"/>
-      <c r="X88" s="10"/>
-      <c r="Y88" s="10"/>
-      <c r="Z88" s="26"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="34"/>
+      <c r="V88" s="34"/>
+      <c r="W88" s="34"/>
+      <c r="X88" s="34"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88" s="50"/>
     </row>
     <row r="89" spans="6:26">
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="36">
         <v>1</v>
       </c>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="23">
-        <v>0</v>
-      </c>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23">
-        <v>0</v>
-      </c>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="23"/>
-      <c r="R89" s="23"/>
-      <c r="S89" s="23">
-        <v>0</v>
-      </c>
-      <c r="T89" s="23"/>
-      <c r="U89" s="23"/>
-      <c r="V89" s="23"/>
-      <c r="W89" s="23">
-        <v>0</v>
-      </c>
-      <c r="X89" s="23"/>
-      <c r="Y89" s="23"/>
-      <c r="Z89" s="32"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="47">
+        <v>0</v>
+      </c>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="47">
+        <v>0</v>
+      </c>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="47"/>
+      <c r="R89" s="47"/>
+      <c r="S89" s="47">
+        <v>0</v>
+      </c>
+      <c r="T89" s="47"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="47"/>
+      <c r="W89" s="47">
+        <v>0</v>
+      </c>
+      <c r="X89" s="47"/>
+      <c r="Y89" s="47"/>
+      <c r="Z89" s="56"/>
     </row>
     <row r="90" spans="6:26">
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="22">
-        <v>0</v>
-      </c>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23">
-        <v>0</v>
-      </c>
-      <c r="L90" s="23"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="23"/>
-      <c r="O90" s="23">
-        <v>0</v>
-      </c>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="23"/>
-      <c r="R90" s="23"/>
-      <c r="S90" s="23">
-        <v>0</v>
-      </c>
-      <c r="T90" s="23"/>
-      <c r="U90" s="23"/>
-      <c r="V90" s="23"/>
-      <c r="W90" s="15">
+      <c r="G90" s="46">
+        <v>0</v>
+      </c>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47">
+        <v>0</v>
+      </c>
+      <c r="L90" s="47"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="47"/>
+      <c r="O90" s="47">
+        <v>0</v>
+      </c>
+      <c r="P90" s="47"/>
+      <c r="Q90" s="47"/>
+      <c r="R90" s="47"/>
+      <c r="S90" s="47">
+        <v>0</v>
+      </c>
+      <c r="T90" s="47"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="47"/>
+      <c r="W90" s="39">
         <v>1</v>
       </c>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="28"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="52"/>
     </row>
     <row r="91" spans="6:26">
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="22">
-        <v>0</v>
-      </c>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="17">
+      <c r="G91" s="46">
+        <v>0</v>
+      </c>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="41">
         <v>1</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="23">
-        <v>0</v>
-      </c>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="23"/>
-      <c r="R91" s="23"/>
-      <c r="S91" s="23">
-        <v>0</v>
-      </c>
-      <c r="T91" s="23"/>
-      <c r="U91" s="23"/>
-      <c r="V91" s="23"/>
-      <c r="W91" s="23">
-        <v>0</v>
-      </c>
-      <c r="X91" s="23"/>
-      <c r="Y91" s="23"/>
-      <c r="Z91" s="32"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="41"/>
+      <c r="N91" s="41"/>
+      <c r="O91" s="47">
+        <v>0</v>
+      </c>
+      <c r="P91" s="47"/>
+      <c r="Q91" s="47"/>
+      <c r="R91" s="47"/>
+      <c r="S91" s="47">
+        <v>0</v>
+      </c>
+      <c r="T91" s="47"/>
+      <c r="U91" s="47"/>
+      <c r="V91" s="47"/>
+      <c r="W91" s="47">
+        <v>0</v>
+      </c>
+      <c r="X91" s="47"/>
+      <c r="Y91" s="47"/>
+      <c r="Z91" s="56"/>
     </row>
-    <row r="92" ht="15.05" spans="7:26">
-      <c r="G92" s="18" t="s">
+    <row r="92" ht="15.9" spans="7:26">
+      <c r="G92" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
-      <c r="U92" s="19"/>
-      <c r="V92" s="19"/>
-      <c r="W92" s="19"/>
-      <c r="X92" s="19"/>
-      <c r="Y92" s="19"/>
-      <c r="Z92" s="30"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="43"/>
+      <c r="U92" s="43"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="43"/>
+      <c r="X92" s="43"/>
+      <c r="Y92" s="43"/>
+      <c r="Z92" s="54"/>
     </row>
     <row r="93" spans="6:26">
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G93" s="36">
         <v>0.1</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H93" s="37">
         <v>0.8</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I93" s="37">
         <v>0.3</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J93" s="37">
         <v>0.6</v>
       </c>
-      <c r="K93" s="23">
-        <v>0</v>
-      </c>
-      <c r="L93" s="23">
-        <v>0</v>
-      </c>
-      <c r="M93" s="23">
-        <v>0</v>
-      </c>
-      <c r="N93" s="23">
-        <v>0</v>
-      </c>
-      <c r="O93" s="23">
-        <v>0</v>
-      </c>
-      <c r="P93" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="23">
-        <v>0</v>
-      </c>
-      <c r="R93" s="23">
-        <v>0</v>
-      </c>
-      <c r="S93" s="23">
-        <v>0</v>
-      </c>
-      <c r="T93" s="23">
-        <v>0</v>
-      </c>
-      <c r="U93" s="23">
-        <v>0</v>
-      </c>
-      <c r="V93" s="23">
-        <v>0</v>
-      </c>
-      <c r="W93" s="23">
-        <v>0</v>
-      </c>
-      <c r="X93" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z93" s="23">
+      <c r="K93" s="47">
+        <v>0</v>
+      </c>
+      <c r="L93" s="47">
+        <v>0</v>
+      </c>
+      <c r="M93" s="47">
+        <v>0</v>
+      </c>
+      <c r="N93" s="47">
+        <v>0</v>
+      </c>
+      <c r="O93" s="47">
+        <v>0</v>
+      </c>
+      <c r="P93" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="47">
+        <v>0</v>
+      </c>
+      <c r="R93" s="47">
+        <v>0</v>
+      </c>
+      <c r="S93" s="47">
+        <v>0</v>
+      </c>
+      <c r="T93" s="47">
+        <v>0</v>
+      </c>
+      <c r="U93" s="47">
+        <v>0</v>
+      </c>
+      <c r="V93" s="47">
+        <v>0</v>
+      </c>
+      <c r="W93" s="47">
+        <v>0</v>
+      </c>
+      <c r="X93" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="6:26">
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="22">
-        <v>0</v>
-      </c>
-      <c r="H94" s="23">
-        <v>0</v>
-      </c>
-      <c r="I94" s="23">
-        <v>0</v>
-      </c>
-      <c r="J94" s="23">
-        <v>0</v>
-      </c>
-      <c r="K94" s="23">
-        <v>0</v>
-      </c>
-      <c r="L94" s="23">
-        <v>0</v>
-      </c>
-      <c r="M94" s="23">
-        <v>0</v>
-      </c>
-      <c r="N94" s="23">
-        <v>0</v>
-      </c>
-      <c r="O94" s="23">
-        <v>0</v>
-      </c>
-      <c r="P94" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="23">
-        <v>0</v>
-      </c>
-      <c r="R94" s="23">
-        <v>0</v>
-      </c>
-      <c r="S94" s="23">
-        <v>0</v>
-      </c>
-      <c r="T94" s="23">
-        <v>0</v>
-      </c>
-      <c r="U94" s="23">
-        <v>0</v>
-      </c>
-      <c r="V94" s="23">
-        <v>0</v>
-      </c>
-      <c r="W94" s="15">
+      <c r="G94" s="46">
+        <v>0</v>
+      </c>
+      <c r="H94" s="47">
+        <v>0</v>
+      </c>
+      <c r="I94" s="47">
+        <v>0</v>
+      </c>
+      <c r="J94" s="47">
+        <v>0</v>
+      </c>
+      <c r="K94" s="47">
+        <v>0</v>
+      </c>
+      <c r="L94" s="47">
+        <v>0</v>
+      </c>
+      <c r="M94" s="47">
+        <v>0</v>
+      </c>
+      <c r="N94" s="47">
+        <v>0</v>
+      </c>
+      <c r="O94" s="47">
+        <v>0</v>
+      </c>
+      <c r="P94" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="47">
+        <v>0</v>
+      </c>
+      <c r="R94" s="47">
+        <v>0</v>
+      </c>
+      <c r="S94" s="47">
+        <v>0</v>
+      </c>
+      <c r="T94" s="47">
+        <v>0</v>
+      </c>
+      <c r="U94" s="47">
+        <v>0</v>
+      </c>
+      <c r="V94" s="47">
+        <v>0</v>
+      </c>
+      <c r="W94" s="39">
         <v>0.1</v>
       </c>
-      <c r="X94" s="15">
+      <c r="X94" s="39">
         <v>0.8</v>
       </c>
-      <c r="Y94" s="15">
+      <c r="Y94" s="39">
         <v>0.3</v>
       </c>
-      <c r="Z94" s="28">
+      <c r="Z94" s="52">
         <v>0.6</v>
       </c>
     </row>
     <row r="95" ht="14.95" spans="6:26">
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G95" s="24">
-        <v>0</v>
-      </c>
-      <c r="H95" s="25">
-        <v>0</v>
-      </c>
-      <c r="I95" s="25">
-        <v>0</v>
-      </c>
-      <c r="J95" s="25">
-        <v>0</v>
-      </c>
-      <c r="K95" s="21">
+      <c r="G95" s="48">
+        <v>0</v>
+      </c>
+      <c r="H95" s="49">
+        <v>0</v>
+      </c>
+      <c r="I95" s="49">
+        <v>0</v>
+      </c>
+      <c r="J95" s="49">
+        <v>0</v>
+      </c>
+      <c r="K95" s="45">
         <v>0.1</v>
       </c>
-      <c r="L95" s="21">
+      <c r="L95" s="45">
         <v>0.8</v>
       </c>
-      <c r="M95" s="21">
+      <c r="M95" s="45">
         <v>0.3</v>
       </c>
-      <c r="N95" s="21">
+      <c r="N95" s="45">
         <v>0.6</v>
       </c>
-      <c r="O95" s="25">
-        <v>0</v>
-      </c>
-      <c r="P95" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="25">
-        <v>0</v>
-      </c>
-      <c r="R95" s="25">
-        <v>0</v>
-      </c>
-      <c r="S95" s="25">
-        <v>0</v>
-      </c>
-      <c r="T95" s="25">
-        <v>0</v>
-      </c>
-      <c r="U95" s="25">
-        <v>0</v>
-      </c>
-      <c r="V95" s="25">
-        <v>0</v>
-      </c>
-      <c r="W95" s="25">
-        <v>0</v>
-      </c>
-      <c r="X95" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y95" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z95" s="33">
+      <c r="O95" s="49">
+        <v>0</v>
+      </c>
+      <c r="P95" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="49">
+        <v>0</v>
+      </c>
+      <c r="R95" s="49">
+        <v>0</v>
+      </c>
+      <c r="S95" s="49">
+        <v>0</v>
+      </c>
+      <c r="T95" s="49">
+        <v>0</v>
+      </c>
+      <c r="U95" s="49">
+        <v>0</v>
+      </c>
+      <c r="V95" s="49">
+        <v>0</v>
+      </c>
+      <c r="W95" s="49">
+        <v>0</v>
+      </c>
+      <c r="X95" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="57">
         <v>0</v>
       </c>
     </row>
@@ -10040,685 +10205,685 @@
   <sheetPr/>
   <dimension ref="D2:AO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O9" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="O11" workbookViewId="0">
       <selection activeCell="O20" sqref="J20:AM21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99253731343284" defaultRowHeight="14.2"/>
+  <sheetFormatPr defaultColWidth="8.99295774647887" defaultRowHeight="14.2"/>
   <cols>
-    <col min="10" max="39" width="5.97014925373134" customWidth="true"/>
+    <col min="10" max="39" width="5.97183098591549" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:4">
-      <c r="D2" s="1"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="1"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="1"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="1"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="1"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="1"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="1"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="4:40">
-      <c r="D10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="AN10" s="2"/>
+      <c r="D10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="AN10" s="26"/>
     </row>
     <row r="11" spans="4:40">
-      <c r="D11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="AN11" s="2"/>
+      <c r="D11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="AN11" s="26"/>
     </row>
     <row r="12" spans="4:40">
-      <c r="D12" s="1"/>
-      <c r="I12" s="2"/>
-      <c r="AN12" s="2"/>
+      <c r="D12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="AN12" s="26"/>
     </row>
     <row r="13" spans="4:40">
-      <c r="D13" s="1"/>
-      <c r="I13" s="2"/>
-      <c r="AN13" s="2"/>
+      <c r="D13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="AN13" s="26"/>
     </row>
     <row r="14" spans="4:40">
-      <c r="D14" s="1"/>
-      <c r="I14" s="2"/>
-      <c r="AN14" s="2"/>
+      <c r="D14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="AN14" s="26"/>
     </row>
     <row r="15" spans="4:40">
-      <c r="D15" s="1"/>
-      <c r="I15" s="2"/>
-      <c r="AN15" s="2"/>
+      <c r="D15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="AN15" s="26"/>
     </row>
     <row r="16" spans="4:40">
-      <c r="D16" s="1"/>
-      <c r="I16" s="2"/>
-      <c r="AN16" s="2"/>
+      <c r="D16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="AN16" s="26"/>
     </row>
     <row r="17" spans="4:40">
-      <c r="D17" s="1"/>
-      <c r="I17" s="2"/>
-      <c r="AN17" s="2"/>
+      <c r="D17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="AN17" s="26"/>
     </row>
     <row r="18" spans="4:40">
-      <c r="D18" s="1"/>
-      <c r="I18" s="2"/>
-      <c r="AN18" s="2"/>
+      <c r="D18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="AN18" s="26"/>
     </row>
     <row r="19" spans="4:40">
-      <c r="D19" s="1"/>
-      <c r="I19" s="2"/>
-      <c r="AN19" s="2"/>
+      <c r="D19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="AN19" s="26"/>
     </row>
     <row r="20" ht="40" customHeight="true" spans="4:40">
-      <c r="D20" s="1"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3">
+      <c r="D20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27">
         <v>1</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="27">
         <v>2</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="27">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="27">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="27">
         <v>5</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="27">
         <v>6</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="27">
         <v>7</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="27">
         <v>8</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="27">
         <v>9</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="27">
         <v>10</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="27">
         <v>11</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="27">
         <v>12</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="27">
         <v>13</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="27">
         <v>14</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="27">
         <v>15</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="27">
         <v>16</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="27">
         <v>17</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="27">
         <v>18</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="27">
         <v>19</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="27">
         <v>20</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="27">
         <v>21</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AE20" s="27">
         <v>22</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AF20" s="27">
         <v>23</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AG20" s="27">
         <v>24</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AH20" s="27">
         <v>25</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AI20" s="27">
         <v>26</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AJ20" s="27">
         <v>27</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AK20" s="27">
         <v>28</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AL20" s="27">
         <v>29</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AM20" s="27">
         <v>30</v>
       </c>
-      <c r="AN20" s="2"/>
+      <c r="AN20" s="26"/>
     </row>
     <row r="21" ht="40" customHeight="true" spans="4:40">
-      <c r="D21" s="1"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="4" t="s">
+      <c r="D21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="2"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="26"/>
     </row>
     <row r="22" ht="20" customHeight="true" spans="4:41">
-      <c r="D22" s="1"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
+      <c r="D22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
     </row>
     <row r="23" ht="20" customHeight="true" spans="4:41">
-      <c r="D23" s="1"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
+      <c r="D23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
     </row>
     <row r="24" ht="20" customHeight="true" spans="4:41">
-      <c r="D24" s="1"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
+      <c r="D24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
     </row>
     <row r="25" spans="4:41">
-      <c r="D25" s="1"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
+      <c r="D25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
     </row>
     <row r="26" spans="4:41">
-      <c r="D26" s="1"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
+      <c r="D26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
     </row>
     <row r="27" spans="4:41">
-      <c r="D27" s="1"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
+      <c r="D27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
     </row>
     <row r="28" spans="4:41">
-      <c r="D28" s="1"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
+      <c r="D28" s="25"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
     </row>
     <row r="29" spans="4:41">
-      <c r="D29" s="1"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
+      <c r="D29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
     </row>
     <row r="30" spans="4:41">
-      <c r="D30" s="1"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
-      <c r="AL30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
+      <c r="D30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="26"/>
     </row>
     <row r="31" spans="4:41">
-      <c r="D31" s="1"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
+      <c r="D31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="26"/>
     </row>
     <row r="32" spans="9:41">
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
-      <c r="AL32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="2"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="26"/>
+      <c r="AN32" s="26"/>
+      <c r="AO32" s="26"/>
     </row>
     <row r="33" spans="9:41">
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
     </row>
     <row r="34" spans="9:41">
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10731,4 +10896,88 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D6:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.91549295774648" defaultRowHeight="14.2"/>
+  <cols>
+    <col min="4" max="14" width="2.8169014084507" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="6" ht="20" customHeight="true"/>
+    <row r="7" ht="20" customHeight="true"/>
+    <row r="8" ht="20" customHeight="true"/>
+    <row r="9" ht="20" customHeight="true" spans="4:10">
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" ht="20" customHeight="true" spans="4:10">
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" ht="20" customHeight="true" spans="4:10">
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" ht="20" customHeight="true" spans="4:10">
+      <c r="D12" s="3"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" ht="20" customHeight="true" spans="4:10">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" ht="20" customHeight="true"/>
+    <row r="15" ht="20" customHeight="true"/>
+    <row r="16" ht="20" customHeight="true"/>
+    <row r="17" ht="20" customHeight="true"/>
+    <row r="18" ht="20" customHeight="true"/>
+    <row r="19" ht="20" customHeight="true"/>
+    <row r="20" ht="20" customHeight="true"/>
+    <row r="21" ht="20" customHeight="true"/>
+    <row r="22" ht="20" customHeight="true"/>
+    <row r="23" ht="20" customHeight="true"/>
+    <row r="24" ht="20" customHeight="true"/>
+    <row r="25" ht="20" customHeight="true"/>
+    <row r="26" ht="20" customHeight="true"/>
+    <row r="27" ht="20" customHeight="true"/>
+    <row r="28" ht="20" customHeight="true"/>
+    <row r="29" ht="20" customHeight="true"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>